--- a/results/mp/deberta/corona/confidence/210/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-0.2/avg_0.002_scores.xlsx
@@ -130,10 +130,10 @@
     <t>safe</t>
   </si>
   <si>
+    <t>dear</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>dear</t>
   </si>
   <si>
     <t>healthy</t>
@@ -1602,25 +1602,25 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.6551724137931034</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L26">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="M26">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="N26">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1628,13 +1628,13 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.6428571428571429</v>
+        <v>0.6359832635983264</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1940,25 +1940,25 @@
         <v>51</v>
       </c>
       <c r="K39">
-        <v>0.5457317073170732</v>
+        <v>0.5264705882352941</v>
       </c>
       <c r="L39">
         <v>179</v>
       </c>
       <c r="M39">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="10:17">
